--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1EAC5A-A4F3-4DD2-8D4C-B47A7475E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35A15DF-121D-4083-AEE6-EF6AB250031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{27E0E034-4560-4D8A-A652-42F15421E34D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BEF19F17-3204-476B-AAC1-7A5E060EE5AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="g10.1" sheetId="1" r:id="rId1"/>
+    <sheet name="g10.1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Ano</t>
+  </si>
+  <si>
     <t>Brasil</t>
   </si>
   <si>
@@ -35,16 +38,13 @@
   <si>
     <t>Sergipe</t>
   </si>
-  <si>
-    <t>Ano</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,27 +391,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814EF43D-6ED8-4481-BB79-BB94D45E6727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD705ED7-B1E2-4BDA-85FB-B1FEF9ACBE2F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +523,13 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>3.4375330004445814</v>
+        <v>3.3597913125480217</v>
       </c>
       <c r="C9" s="1">
-        <v>1.1059820644121476</v>
+        <v>0.92105447730674861</v>
       </c>
       <c r="D9" s="1">
-        <v>4.5015774199615999</v>
+        <v>2.1786611303191705</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +537,13 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>-3.0508061996352143</v>
+        <v>-2.9778862191424338</v>
       </c>
       <c r="C10" s="1">
-        <v>-4.3542365501155533</v>
+        <v>-4.178975398285079</v>
       </c>
       <c r="D10" s="1">
-        <v>-11.377378174670639</v>
+        <v>-9.3626431058061232</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35A15DF-121D-4083-AEE6-EF6AB250031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A781E6-BB35-4CDF-B487-3454EE195AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BEF19F17-3204-476B-AAC1-7A5E060EE5AE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,11 +392,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD705ED7-B1E2-4BDA-85FB-B1FEF9ACBE2F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -574,6 +572,20 @@
         <v>18.012536377384734</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.5099873380086466</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.6650979763673313</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15.770989815736547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>9.782719609217882</v>
+        <v>-6.945459866632464</v>
       </c>
       <c r="C2" t="n">
-        <v>7.986061027192304</v>
+        <v>7.950444133294465</v>
       </c>
       <c r="D2" t="n">
-        <v>2.848416155855138</v>
+        <v>3.556284007633725</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>7.465332018073823</v>
+        <v>-3.036886126204696</v>
       </c>
       <c r="C3" t="n">
-        <v>4.345302495494874</v>
+        <v>4.32053098328069</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.433842574057178</v>
+        <v>-5.231148880710634</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>3.132014738597455</v>
+        <v>-0.2428913365878027</v>
       </c>
       <c r="C4" t="n">
-        <v>4.145448757685855</v>
+        <v>4.089514410991879</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5204255044772</v>
+        <v>1.617967204259418</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2316004644453695</v>
+        <v>1.240228601278837</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.184602786845967</v>
+        <v>-1.167284998707752</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.591942646479128</v>
+        <v>8.069838142886532</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.245717626361909</v>
+        <v>-5.131386207658939</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.68451870762887</v>
+        <v>-3.644730700475063</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.466453608225043</v>
+        <v>0.1803235434287398</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>5.435492321513324</v>
+        <v>-3.396552155841559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5612047518458896</v>
+        <v>0.5589478740239961</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.172910358549383</v>
+        <v>0.7501023948736973</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>3.511424835706745</v>
+        <v>-3.181803085586088</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.110606440306239</v>
+        <v>-1.093880967492233</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7309622812886274</v>
+        <v>-1.927233180489829</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>3.307387125229844</v>
+        <v>2.966239721912212</v>
       </c>
       <c r="C9" t="n">
-        <v>1.083276643812092</v>
+        <v>1.02962888897391</v>
       </c>
       <c r="D9" t="n">
-        <v>1.982613978639614</v>
+        <v>9.598603239719171</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.866734961219475</v>
+        <v>-13.96720279275766</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.896996159212773</v>
+        <v>-3.881326808675356</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.741399054280496</v>
+        <v>-12.16332375821054</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>16.24507815370946</v>
+        <v>-11.06887526366901</v>
       </c>
       <c r="C11" t="n">
-        <v>15.36860081135374</v>
+        <v>15.31299463552325</v>
       </c>
       <c r="D11" t="n">
-        <v>13.86672480604378</v>
+        <v>-14.1200794564396</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>12.42191574016804</v>
+        <v>-4.743353330200073</v>
       </c>
       <c r="C12" t="n">
-        <v>14.50080165885474</v>
+        <v>14.57313267306115</v>
       </c>
       <c r="D12" t="n">
-        <v>16.45807337369061</v>
+        <v>-12.92492359235758</v>
       </c>
     </row>
     <row r="13">
@@ -614,27 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>5.004071856012993</v>
+        <v>-6.023626654444081</v>
       </c>
       <c r="C13" t="n">
-        <v>7.594695359838166</v>
+        <v>7.51362334105854</v>
       </c>
       <c r="D13" t="n">
-        <v>14.85078785215026</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6.33562582742706</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.378006905039913</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.094815563648838</v>
+        <v>-7.480404852174571</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.945459866632464</v>
+        <v>-6.943942466780317</v>
       </c>
       <c r="C2" t="n">
-        <v>7.950444133294465</v>
+        <v>7.985561900211491</v>
       </c>
       <c r="D2" t="n">
-        <v>3.556284007633725</v>
+        <v>3.558416437559409</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.036886126204696</v>
+        <v>-3.033528379010808</v>
       </c>
       <c r="C3" t="n">
-        <v>4.32053098328069</v>
+        <v>4.334264824683731</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.231148880710634</v>
+        <v>-5.228869536197389</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2428913365878027</v>
+        <v>-0.2327678074659945</v>
       </c>
       <c r="C4" t="n">
-        <v>4.089514410991879</v>
+        <v>4.101953574790462</v>
       </c>
       <c r="D4" t="n">
-        <v>1.617967204259418</v>
+        <v>1.61910220795054</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>1.240228601278837</v>
+        <v>1.249304374546467</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.167284998707752</v>
+        <v>-1.204086634669399</v>
       </c>
       <c r="D5" t="n">
-        <v>8.069838142886532</v>
+        <v>8.070905286572305</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.131386207658939</v>
+        <v>-5.140647810975807</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.644730700475063</v>
+        <v>-3.65206940235947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1803235434287398</v>
+        <v>0.1819403087696347</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.396552155841559</v>
+        <v>-3.399975836171742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5589478740239961</v>
+        <v>0.5772764519954787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7501023948736973</v>
+        <v>0.7720863564637304</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.181803085586088</v>
+        <v>-3.189489044441729</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.093880967492233</v>
+        <v>-1.088355958105625</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.927233180489829</v>
+        <v>-1.90857259036582</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>2.966239721912212</v>
+        <v>2.962637469059248</v>
       </c>
       <c r="C9" t="n">
-        <v>1.02962888897391</v>
+        <v>1.03338185358528</v>
       </c>
       <c r="D9" t="n">
-        <v>9.598603239719171</v>
+        <v>9.619155300664595</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.96720279275766</v>
+        <v>-13.97437319254418</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.881326808675356</v>
+        <v>-3.916628966280844</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.16332375821054</v>
+        <v>-12.16490384706811</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.06887526366901</v>
+        <v>-11.06390641573395</v>
       </c>
       <c r="C11" t="n">
-        <v>15.31299463552325</v>
+        <v>15.37912276036422</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.1200794564396</v>
+        <v>-14.12152573771694</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.743353330200073</v>
+        <v>-4.756691349375375</v>
       </c>
       <c r="C12" t="n">
-        <v>14.57313267306115</v>
+        <v>14.54125736551517</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.92492359235758</v>
+        <v>-12.94678802350021</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.023626654444081</v>
+        <v>-6.006456415604633</v>
       </c>
       <c r="C13" t="n">
-        <v>7.51362334105854</v>
+        <v>7.559924425551756</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.480404852174571</v>
+        <v>-7.503098588847368</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.943942466780317</v>
+        <v>-6.943213131802861</v>
       </c>
       <c r="C2" t="n">
-        <v>7.985561900211491</v>
+        <v>7.980742702876276</v>
       </c>
       <c r="D2" t="n">
-        <v>3.558416437559409</v>
+        <v>3.559178325481649</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.033528379010808</v>
+        <v>-3.033399858582009</v>
       </c>
       <c r="C3" t="n">
-        <v>4.334264824683731</v>
+        <v>4.325288184342346</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.228869536197389</v>
+        <v>-5.228005074708375</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2327678074659945</v>
+        <v>-0.2288600019107689</v>
       </c>
       <c r="C4" t="n">
-        <v>4.101953574790462</v>
+        <v>4.090352838664701</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61910220795054</v>
+        <v>1.61985019946338</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>1.249304374546467</v>
+        <v>1.24772536898583</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.204086634669399</v>
+        <v>-1.19499485174599</v>
       </c>
       <c r="D5" t="n">
-        <v>8.070905286572305</v>
+        <v>8.071533547379129</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.140647810975807</v>
+        <v>-5.140084324314231</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.65206940235947</v>
+        <v>-3.652084222111918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1819403087696347</v>
+        <v>0.1774081972812258</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.399975836171742</v>
+        <v>-3.397932324802488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5772764519954787</v>
+        <v>0.583525770808202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7720863564637304</v>
+        <v>0.7598352624477389</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.189489044441729</v>
+        <v>-3.18596839631059</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.088355958105625</v>
+        <v>-1.091482996358195</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.90857259036582</v>
+        <v>-1.922784329967397</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>2.962637469059248</v>
+        <v>2.972239650855424</v>
       </c>
       <c r="C9" t="n">
-        <v>1.03338185358528</v>
+        <v>1.038283775507809</v>
       </c>
       <c r="D9" t="n">
-        <v>9.619155300664595</v>
+        <v>9.604857944187906</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.97437319254418</v>
+        <v>-13.97255252459051</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.916628966280844</v>
+        <v>-3.906522121507139</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.16490384706811</v>
+        <v>-12.17208917510788</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.06390641573395</v>
+        <v>-11.05852305620129</v>
       </c>
       <c r="C11" t="n">
-        <v>15.37912276036422</v>
+        <v>15.38588480891123</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.12152573771694</v>
+        <v>-14.12283002730265</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.756691349375375</v>
+        <v>-4.755431186326897</v>
       </c>
       <c r="C12" t="n">
-        <v>14.54125736551517</v>
+        <v>14.56074928380076</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.94678802350021</v>
+        <v>-12.94489690617815</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.006456415604633</v>
+        <v>-6.003665244428714</v>
       </c>
       <c r="C13" t="n">
-        <v>7.559924425551756</v>
+        <v>7.569339803891406</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.503098588847368</v>
+        <v>-7.531773508934014</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.943213131802861</v>
+        <v>-6.94411181458936</v>
       </c>
       <c r="C2" t="n">
-        <v>7.980742702876276</v>
+        <v>8.002699504927225</v>
       </c>
       <c r="D2" t="n">
-        <v>3.559178325481649</v>
+        <v>3.559809995278185</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.033399858582009</v>
+        <v>-3.034807695923036</v>
       </c>
       <c r="C3" t="n">
-        <v>4.325288184342346</v>
+        <v>4.323030226531244</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.228005074708375</v>
+        <v>-5.227979871290955</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2288600019107689</v>
+        <v>-0.2285639026915365</v>
       </c>
       <c r="C4" t="n">
-        <v>4.090352838664701</v>
+        <v>4.082587020578132</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61985019946338</v>
+        <v>1.619966974719511</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>1.24772536898583</v>
+        <v>1.249666286568085</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.19499485174599</v>
+        <v>-1.211081365207844</v>
       </c>
       <c r="D5" t="n">
-        <v>8.071533547379129</v>
+        <v>8.071189693001756</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.140084324314231</v>
+        <v>-5.144988776136906</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.652084222111918</v>
+        <v>-3.644488712179317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1774081972812258</v>
+        <v>0.1792322793926937</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.397932324802488</v>
+        <v>-3.393663968685923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.583525770808202</v>
+        <v>0.6064994933137724</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7598352624477389</v>
+        <v>0.7544524441076339</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.18596839631059</v>
+        <v>-3.189605498522374</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.091482996358195</v>
+        <v>-1.101825692711189</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.922784329967397</v>
+        <v>-1.923380893200122</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>2.972239650855424</v>
+        <v>2.96747992846258</v>
       </c>
       <c r="C9" t="n">
-        <v>1.038283775507809</v>
+        <v>1.029256131383471</v>
       </c>
       <c r="D9" t="n">
-        <v>9.604857944187906</v>
+        <v>9.604233041845811</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.97255252459051</v>
+        <v>-13.97396110968855</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.906522121507139</v>
+        <v>-3.939015861750861</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.17208917510788</v>
+        <v>-12.1555664716273</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.05852305620129</v>
+        <v>-11.05841606423861</v>
       </c>
       <c r="C11" t="n">
-        <v>15.38588480891123</v>
+        <v>15.40055949980328</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.12283002730265</v>
+        <v>-14.11367098522576</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.755431186326897</v>
+        <v>-4.760005733204464</v>
       </c>
       <c r="C12" t="n">
-        <v>14.56074928380076</v>
+        <v>14.550983425704</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.94489690617815</v>
+        <v>-12.9284390437578</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.003665244428714</v>
+        <v>-6.021318115680419</v>
       </c>
       <c r="C13" t="n">
-        <v>7.569339803891406</v>
+        <v>7.610411375818282</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.531773508934014</v>
+        <v>-7.524579134993859</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g10.1.xlsx
+++ b/Data/g10.1.xlsx
@@ -460,13 +460,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.94411181458936</v>
+        <v>-6.94354713543871</v>
       </c>
       <c r="C2" t="n">
-        <v>8.002699504927225</v>
+        <v>7.990168510511264</v>
       </c>
       <c r="D2" t="n">
-        <v>3.559809995278185</v>
+        <v>3.559831809881109</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.034807695923036</v>
+        <v>-3.033464260293317</v>
       </c>
       <c r="C3" t="n">
-        <v>4.323030226531244</v>
+        <v>4.333352843923399</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.227979871290955</v>
+        <v>-5.227846237893674</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2285639026915365</v>
+        <v>-0.2234743598115374</v>
       </c>
       <c r="C4" t="n">
-        <v>4.082587020578132</v>
+        <v>4.093761345842939</v>
       </c>
       <c r="D4" t="n">
-        <v>1.619966974719511</v>
+        <v>1.620256385538821</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>1.249666286568085</v>
+        <v>1.260711594855279</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.211081365207844</v>
+        <v>-1.223239834604506</v>
       </c>
       <c r="D5" t="n">
-        <v>8.071189693001756</v>
+        <v>8.070903554328556</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.144988776136906</v>
+        <v>-5.160995246877953</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.644488712179317</v>
+        <v>-3.632675769107285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1792322793926937</v>
+        <v>0.1732976787794716</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.393663968685923</v>
+        <v>-3.381558148626762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6064994933137724</v>
+        <v>0.5958395557011942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7544524441076339</v>
+        <v>0.7220832816449141</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.189605498522374</v>
+        <v>-3.186190652963306</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.101825692711189</v>
+        <v>-1.091206871444617</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.923380893200122</v>
+        <v>-1.955526309528577</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>2.96747992846258</v>
+        <v>2.964647058339054</v>
       </c>
       <c r="C9" t="n">
-        <v>1.029256131383471</v>
+        <v>1.042552283805143</v>
       </c>
       <c r="D9" t="n">
-        <v>9.604233041845811</v>
+        <v>9.570679981139186</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.97396110968855</v>
+        <v>-13.99768529350024</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.939015861750861</v>
+        <v>-3.93685177458396</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.1555664716273</v>
+        <v>-12.15959139070785</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.05841606423861</v>
+        <v>-11.0410856605323</v>
       </c>
       <c r="C11" t="n">
-        <v>15.40055949980328</v>
+        <v>15.37783447774446</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.11367098522576</v>
+        <v>-14.1120775080652</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.760005733204464</v>
+        <v>-4.78117406122619</v>
       </c>
       <c r="C12" t="n">
-        <v>14.550983425704</v>
+        <v>14.54741383364233</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.9284390437578</v>
+        <v>-12.90242013598057</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.021318115680419</v>
+        <v>-5.978844308965603</v>
       </c>
       <c r="C13" t="n">
-        <v>7.610411375818282</v>
+        <v>7.560548501577813</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.524579134993859</v>
+        <v>-7.493641516982841</v>
       </c>
     </row>
   </sheetData>
